--- a/concept/api_design.xlsx
+++ b/concept/api_design.xlsx
@@ -87,9 +87,6 @@
     <t>Get all problems list</t>
   </si>
   <si>
-    <t>5. List of Test Route</t>
-  </si>
-  <si>
     <t>Get all information about a test based on try out ID</t>
   </si>
   <si>
@@ -103,6 +100,9 @@
   </si>
   <si>
     <t>Soft delete a test based on try out ID</t>
+  </si>
+  <si>
+    <t>4. List of Test Route</t>
   </si>
 </sst>
 </file>
@@ -240,27 +240,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -271,15 +280,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -588,8 +588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="S24" sqref="S24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -598,18 +598,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="16" t="s">
@@ -620,460 +620,464 @@
       <c r="E5" s="16"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6" t="s">
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13" t="s">
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="6" t="s">
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="4" t="s">
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="6" t="s">
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="4" t="s">
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="4" t="s">
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="11"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="14"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="4" t="s">
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="4" t="s">
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="4" t="s">
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B22" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B23" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B22" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B23" s="3" t="s">
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B24" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="14"/>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B25" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B26" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B24" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="11"/>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B25" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G25" s="3" t="s">
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B26" s="3" t="s">
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B27" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" s="3" t="s">
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B27" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="G25:P25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="G26:P26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="G27:P27"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="G22:P22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="G23:P23"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="G6:P6"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="G14:P14"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="G7:P7"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="G10:P10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="G11:P11"/>
+    <mergeCell ref="B13:E13"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="G24:P24"/>
     <mergeCell ref="B19:E19"/>
@@ -1086,21 +1090,17 @@
     <mergeCell ref="G18:P18"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="G16:P16"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="G10:P10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="G11:P11"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="G14:P14"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="G7:P7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="G6:P6"/>
-    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="G22:P22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="G23:P23"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="G25:P25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="G26:P26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="G27:P27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/concept/api_design.xlsx
+++ b/concept/api_design.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="28">
   <si>
     <t>API Design</t>
   </si>
@@ -82,9 +82,6 @@
   </si>
   <si>
     <t>Soft delete a problem based on problem ID</t>
-  </si>
-  <si>
-    <t>Get all problems list</t>
   </si>
   <si>
     <t>Get all information about a test based on try out ID</t>
@@ -261,15 +258,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -278,12 +281,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -586,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:P27"/>
+  <dimension ref="B2:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:E22"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -598,72 +595,72 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
       <c r="F6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
       <c r="F7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
@@ -683,12 +680,12 @@
       <c r="P8" s="4"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
       <c r="F9" s="8"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -702,58 +699,58 @@
       <c r="P9" s="7"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
       <c r="F10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
       <c r="F11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
       <c r="F13" s="8"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -767,63 +764,63 @@
       <c r="P13" s="7"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
       <c r="F15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
-      <c r="E16" s="14"/>
+      <c r="E16" s="13"/>
       <c r="F16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>22</v>
+        <v>7</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
@@ -833,153 +830,153 @@
       <c r="M16" s="13"/>
       <c r="N16" s="13"/>
       <c r="O16" s="13"/>
-      <c r="P16" s="14"/>
+      <c r="P16" s="13"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B17" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
+      <c r="B17" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
       <c r="F17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
       <c r="F18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G18" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B20" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
+      <c r="F21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B22" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
+      <c r="B22" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B23" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
+      <c r="B23" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="16"/>
       <c r="F23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G23" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="16"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
-      <c r="E24" s="14"/>
+      <c r="E24" s="13"/>
       <c r="F24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="13" t="s">
         <v>24</v>
       </c>
       <c r="H24" s="13"/>
@@ -990,84 +987,77 @@
       <c r="M24" s="13"/>
       <c r="N24" s="13"/>
       <c r="O24" s="13"/>
-      <c r="P24" s="14"/>
+      <c r="P24" s="13"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B25" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
+      <c r="B25" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
       <c r="F25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G25" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
       <c r="F26" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B27" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="38">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="G6:P6"/>
-    <mergeCell ref="B5:E5"/>
+  <mergeCells count="36">
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="G26:P26"/>
+    <mergeCell ref="G22:P22"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="G24:P24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="G25:P25"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="G23:P23"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="G18:P18"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="G15:P15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="G16:P16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:P17"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="G21:P21"/>
+    <mergeCell ref="B22:E22"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="G14:P14"/>
     <mergeCell ref="B7:E7"/>
@@ -1078,29 +1068,11 @@
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="G11:P11"/>
     <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="G24:P24"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="G19:P19"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="G15:P15"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:P17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="G18:P18"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="G16:P16"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="G22:P22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="G23:P23"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="G25:P25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="G26:P26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="G27:P27"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="G6:P6"/>
+    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
